--- a/Linearisierungen/CC investment costs.xlsx
+++ b/Linearisierungen/CC investment costs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E9BBC5D9-DC59-4312-AA9F-84AEA0A3EC2C}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{80EC3316-E86C-4B4F-A66E-0525A34B1EF9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Leistung kW</t>
-  </si>
-  <si>
-    <t>Bundesministerium</t>
   </si>
   <si>
     <t>Kolbenverdichter kEUR</t>
@@ -42,7 +39,40 @@
     <t>Turboverdichter kEUR</t>
   </si>
   <si>
-    <t>IUTA viel zu hoch!</t>
+    <t>Bundesministerium Kaltwassersatz ohne Rückkühlung</t>
+  </si>
+  <si>
+    <t>Rückkühler</t>
+  </si>
+  <si>
+    <t>Rückkühler (s.Excel-Datei Kosten Kühlturm)</t>
+  </si>
+  <si>
+    <t>Leistungszahl</t>
+  </si>
+  <si>
+    <t>kW Abwärme</t>
+  </si>
+  <si>
+    <t>kEUR</t>
+  </si>
+  <si>
+    <t>kEUR gesamt</t>
+  </si>
+  <si>
+    <t>Preisatlas Wasserkühlsatz</t>
+  </si>
+  <si>
+    <t>kW Kälte</t>
+  </si>
+  <si>
+    <t>kW Wärme</t>
+  </si>
+  <si>
+    <t>kEUR RK</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
   </si>
 </sst>
 </file>
@@ -66,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -74,13 +104,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -148,7 +223,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Daten!$A$4:$A$9</c:f>
+              <c:f>Daten!$A$18:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -175,27 +250,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Daten!$B$4:$B$9</c:f>
+              <c:f>Daten!$B$18:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22.5</c:v>
+                  <c:v>35.381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>50.191000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>79.811000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>99.430999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>119.051</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.5</c:v>
+                  <c:v>146.17099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -237,7 +312,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Daten!$A$6:$A$11</c:f>
+              <c:f>Daten!$A$20:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -264,27 +339,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Daten!$C$6:$C$11</c:f>
+              <c:f>Daten!$C$20:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>74.811000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.5</c:v>
+                  <c:v>91.930999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>109.051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.5</c:v>
+                  <c:v>121.17099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>128.291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.5</c:v>
+                  <c:v>130.411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -310,7 +385,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -318,7 +393,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="92D050"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -326,7 +401,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Daten!$A$7:$A$14</c:f>
+              <c:f>Daten!$A$21:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -359,33 +434,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Daten!$D$7:$D$14</c:f>
+              <c:f>Daten!$D$21:$D$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>82.5</c:v>
+                  <c:v>106.931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>129.05099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
+                  <c:v>158.67099999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135</c:v>
+                  <c:v>173.291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157.5</c:v>
+                  <c:v>200.411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160</c:v>
+                  <c:v>207.53100000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>306.01100000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>280</c:v>
+                  <c:v>364.49099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -401,7 +476,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>1-500</c:v>
+            <c:v>0-500</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -411,19 +486,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -436,7 +499,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:backward val="125"/>
+            <c:backward val="50"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
@@ -473,7 +536,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Daten!$A$4,Daten!$A$5,Daten!$A$6,Daten!$A$6,Daten!$C$19:$C$24)</c:f>
+              <c:f>(Daten!$A$18,Daten!$A$19,Daten!$A$20,Daten!$A$20,Daten!$A$35:$A$40)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -489,26 +552,62 @@
                 <c:pt idx="3">
                   <c:v>500</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Daten!$B$4,Daten!$B$5,Daten!$B$6,Daten!$C$6,Daten!$D$19:$D$24)</c:f>
+              <c:f>(Daten!$B$18:$B$20,Daten!$C$20,Daten!$E$35:$E$40)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>22.5</c:v>
+                  <c:v>35.381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>50.191000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>79.811000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>74.811000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.138255024742591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.149381044538735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.071241152101663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.970797498656168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.396646703667784</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.541079019124084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -523,6 +622,125 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Preisatlas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daten!$A$35:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daten!$E$35:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30.138255024742591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.149381044538735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.071241152101663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.970797498656168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.396646703667784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.541079019124084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133.1827953488193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167.22238117834343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>234.34567310494634</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300.74702640436539</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>432.40365835393987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D5EC-4070-86A9-B96FB1D15725}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>500-4000</c:v>
           </c:tx>
@@ -547,7 +765,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="29"/>
+            <c:intercept val="50"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -583,10 +801,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Daten!$A$6,Daten!$A$6,Daten!$A$7,Daten!$A$7,Daten!$A$7,Daten!$A$8,Daten!$A$8,Daten!$A$8,Daten!$A$9,Daten!$A$9,Daten!$A$9,Daten!$A$10,Daten!$A$10,Daten!$A$11,Daten!$A$11,Daten!$A$12:$A$14,Daten!$C$24:$C$30)</c:f>
+              <c:f>(Daten!$A$20,Daten!$A$20,Daten!$A$21,Daten!$A$21,Daten!$A$21,Daten!$A$22,Daten!$A$22,Daten!$A$22,Daten!$A$23,Daten!$A$23,Daten!$A$23,Daten!$A$24,Daten!$A$24,Daten!$A$25,Daten!$A$25,Daten!$A$26,Daten!$A$40:$A$44,Daten!$A$27,Daten!$A$28,Daten!$A$45)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -636,73 +854,109 @@
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Daten!$B$6:$C$6,Daten!$B$7:$D$7,Daten!$B$8:$D$8,Daten!$B$9:$D$9,Daten!$C$10:$D$10,Daten!$C$11:$D$11,Daten!$D$12:$D$14,Daten!$D$24:$D$30)</c:f>
+              <c:f>(Daten!$B$20:$C$20,Daten!$B$21:$D$21,Daten!$B$22:$D$22,Daten!$B$23:$D$23,Daten!$C$24:$D$24,Daten!$C$25:$D$25,Daten!$D$26,Daten!$E$40:$E$44,Daten!$D$27,Daten!$D$28,Daten!$E$45)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>79.811000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>74.811000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>99.430999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82.5</c:v>
+                  <c:v>91.930999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>106.931</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>119.051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>109.051</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>129.05099999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112.5</c:v>
+                  <c:v>146.17099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>125</c:v>
+                  <c:v>121.17099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>158.67099999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>135</c:v>
+                  <c:v>128.291</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>173.291</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>157.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
+                  <c:v>130.411</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>200.411</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>207.53100000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>240</c:v>
+                  <c:v>98.541079019124084</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>280</c:v>
+                  <c:v>133.1827953488193</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>167.22238117834343</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>234.34567310494634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300.74702640436539</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00">
+                  <c:v>306.01100000000002</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>364.49099999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>432.40365835393987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,7 +964,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1FB8-4FE8-B40A-D3466F829249}"/>
+              <c16:uniqueId val="{00000005-D5EC-4070-86A9-B96FB1D15725}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1553,16 +1807,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>188819</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>871537</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>233922</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>119342</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1853,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,46 +2120,81 @@
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>125</v>
       </c>
       <c r="B4">
         <v>22.5</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>A4*(1+1/$F$1)</f>
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <f>0.0154*E4+10.571</f>
+        <v>12.881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>250</v>
       </c>
       <c r="B5">
         <v>35</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>A5*(1+1/$F$1)</f>
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F14" si="0">0.0154*E5+10.571</f>
+        <v>15.190999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -1915,9 +2204,16 @@
       <c r="C6">
         <v>55</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>A6*(1+1/$F$1)</f>
+        <v>600</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>19.811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>750</v>
       </c>
@@ -1930,9 +2226,16 @@
       <c r="D7">
         <v>82.5</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>A7*(1+1/$F$1)</f>
+        <v>900</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>24.431000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1945,9 +2248,16 @@
       <c r="D8">
         <v>100</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>A8*(1+1/$F$1)</f>
+        <v>1200</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>29.051000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1250</v>
       </c>
@@ -1960,9 +2270,16 @@
       <c r="D9">
         <v>125</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>A9*(1+1/$F$1)</f>
+        <v>1500</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>33.670999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1500</v>
       </c>
@@ -1972,9 +2289,16 @@
       <c r="D10">
         <v>135</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>A10*(1+1/$F$1)</f>
+        <v>1800</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>38.291000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1750</v>
       </c>
@@ -1984,67 +2308,207 @@
       <c r="D11">
         <v>157.5</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>A11*(1+1/$F$1)</f>
+        <v>2100</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>42.911000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2000</v>
       </c>
       <c r="D12">
         <v>160</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>A12*(1+1/$F$1)</f>
+        <v>2400</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>47.530999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3000</v>
       </c>
       <c r="D13">
         <v>240</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>A13*(1+1/$F$1)</f>
+        <v>3600</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>66.01100000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4000</v>
       </c>
       <c r="D14">
         <v>280</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14">
+        <f>A14*(1+1/$F$1)</f>
+        <v>4800</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>84.491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>125</v>
+      </c>
+      <c r="B18">
+        <f>B4+F4</f>
+        <v>35.381</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
+      <c r="A19">
+        <v>250</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:B23" si="1">B5+F5</f>
+        <v>50.191000000000003</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>500</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>79.811000000000007</v>
+      </c>
+      <c r="C20">
+        <f>C6+F6</f>
+        <v>74.811000000000007</v>
+      </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+      <c r="A21">
+        <v>750</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>99.430999999999997</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C25" si="2">C7+F7</f>
+        <v>91.930999999999997</v>
+      </c>
+      <c r="D21" s="1">
+        <f>D7+F7</f>
+        <v>106.931</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
+      <c r="A22">
+        <v>1000</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>119.051</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>109.051</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:D28" si="3">D8+F8</f>
+        <v>129.05099999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
+      <c r="A23">
+        <v>1250</v>
+      </c>
+      <c r="B23">
+        <f>B9+F9</f>
+        <v>146.17099999999999</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>121.17099999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>158.67099999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
+      <c r="A24">
+        <v>1500</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>128.291</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="3"/>
+        <v>173.291</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
+      <c r="A25">
+        <v>1750</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>130.411</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="3"/>
+        <v>200.411</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
+      <c r="A26">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="3"/>
+        <v>207.53100000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
+      <c r="A27">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="3"/>
+        <v>306.01100000000002</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
+      <c r="A28">
+        <v>4000</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>364.49099999999999</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
@@ -2054,6 +2518,267 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="B35" s="6">
+        <f>(4732.2487*A35^(-0.7382)+109.3)*A35/1000</f>
+        <v>18.643255024742594</v>
+      </c>
+      <c r="C35">
+        <f>A35*(1+1/$F$1)</f>
+        <v>60</v>
+      </c>
+      <c r="D35" s="6">
+        <f>0.0154*C35+10.571</f>
+        <v>11.494999999999999</v>
+      </c>
+      <c r="E35">
+        <f>B35+D35</f>
+        <v>30.138255024742591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36" s="2">
+        <f>(4732.2487*A36^(-0.7382)+109.3)*A36/1000</f>
+        <v>26.730381044538735</v>
+      </c>
+      <c r="C36">
+        <f>A36*(1+1/$F$1)</f>
+        <v>120</v>
+      </c>
+      <c r="D36" s="2">
+        <f>0.0154*C36+10.571</f>
+        <v>12.419</v>
+      </c>
+      <c r="E36">
+        <f>B36+D36</f>
+        <v>39.149381044538735</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="B37" s="2">
+        <f>(4732.2487*A37^(-0.7382)+109.3)*A37/1000</f>
+        <v>40.804241152101667</v>
+      </c>
+      <c r="C37">
+        <f>A37*(1+1/$F$1)</f>
+        <v>240</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" ref="D37:D46" si="4">0.0154*C37+10.571</f>
+        <v>14.266999999999999</v>
+      </c>
+      <c r="E37">
+        <f>B37+D37</f>
+        <v>55.071241152101663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>300</v>
+      </c>
+      <c r="B38" s="2">
+        <f>(4732.2487*A38^(-0.7382)+109.3)*A38/1000</f>
+        <v>53.855797498656166</v>
+      </c>
+      <c r="C38">
+        <f>A38*(1+1/$F$1)</f>
+        <v>360</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="4"/>
+        <v>16.115000000000002</v>
+      </c>
+      <c r="E38">
+        <f>B38+D38</f>
+        <v>69.970797498656168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>400</v>
+      </c>
+      <c r="B39" s="2">
+        <f>(4732.2487*A39^(-0.7382)+109.3)*A39/1000</f>
+        <v>66.433646703667776</v>
+      </c>
+      <c r="C39">
+        <f>A39*(1+1/$F$1)</f>
+        <v>480</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="4"/>
+        <v>17.963000000000001</v>
+      </c>
+      <c r="E39">
+        <f>B39+D39</f>
+        <v>84.396646703667784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>500</v>
+      </c>
+      <c r="B40" s="2">
+        <f>(4732.2487*A40^(-0.7382)+109.3)*A40/1000</f>
+        <v>78.730079019124091</v>
+      </c>
+      <c r="C40">
+        <f>A40*(1+1/$F$1)</f>
+        <v>600</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="4"/>
+        <v>19.811</v>
+      </c>
+      <c r="E40">
+        <f>B40+D40</f>
+        <v>98.541079019124084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>750</v>
+      </c>
+      <c r="B41" s="2">
+        <f>(4732.2487*A41^(-0.7382)+109.3)*A41/1000</f>
+        <v>108.7517953488193</v>
+      </c>
+      <c r="C41">
+        <f>A41*(1+1/$F$1)</f>
+        <v>900</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="4"/>
+        <v>24.431000000000001</v>
+      </c>
+      <c r="E41">
+        <f>B41+D41</f>
+        <v>133.1827953488193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1000</v>
+      </c>
+      <c r="B42" s="2">
+        <f>(4732.2487*A42^(-0.7382)+109.3)*A42/1000</f>
+        <v>138.17138117834344</v>
+      </c>
+      <c r="C42">
+        <f>A42*(1+1/$F$1)</f>
+        <v>1200</v>
+      </c>
+      <c r="D42" s="2">
+        <f>0.0154*C42+10.571</f>
+        <v>29.051000000000002</v>
+      </c>
+      <c r="E42">
+        <f>B42+D42</f>
+        <v>167.22238117834343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1500</v>
+      </c>
+      <c r="B43" s="2">
+        <f>(4732.2487*A43^(-0.7382)+109.3)*A43/1000</f>
+        <v>196.05467310494635</v>
+      </c>
+      <c r="C43">
+        <f>A43*(1+1/$F$1)</f>
+        <v>1800</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="4"/>
+        <v>38.291000000000004</v>
+      </c>
+      <c r="E43">
+        <f>B43+D43</f>
+        <v>234.34567310494634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2000</v>
+      </c>
+      <c r="B44" s="2">
+        <f>(4732.2487*A44^(-0.7382)+109.3)*A44/1000</f>
+        <v>253.21602640436541</v>
+      </c>
+      <c r="C44">
+        <f>A44*(1+1/$F$1)</f>
+        <v>2400</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="4"/>
+        <v>47.530999999999999</v>
+      </c>
+      <c r="E44">
+        <f>B44+D44</f>
+        <v>300.74702640436539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3000</v>
+      </c>
+      <c r="B45" s="2">
+        <f>(4732.2487*A45^(-0.7382)+109.3)*A45/1000</f>
+        <v>366.39265835393985</v>
+      </c>
+      <c r="C45">
+        <f>A45*(1+1/$F$1)</f>
+        <v>3600</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="4"/>
+        <v>66.01100000000001</v>
+      </c>
+      <c r="E45">
+        <f>B45+D45</f>
+        <v>432.40365835393987</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Linearisierungen/CC investment costs.xlsx
+++ b/Linearisierungen/CC investment costs.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="337" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{80EC3316-E86C-4B4F-A66E-0525A34B1EF9}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{4CFB12A1-C293-4971-B948-FE583390A35B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
+    <sheet name="Daten" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -197,7 +198,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Kolbenverdichter</c:v>
+            <c:v>BMVBS Kolbenverdichter</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -208,7 +209,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -278,7 +279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1FB8-4FE8-B40A-D3466F829249}"/>
+              <c16:uniqueId val="{00000000-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -286,7 +287,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Schraubenverdichter</c:v>
+            <c:v>BMVBS Schraubenverdichter</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -296,8 +297,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -367,7 +368,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1FB8-4FE8-B40A-D3466F829249}"/>
+              <c16:uniqueId val="{00000001-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -375,7 +376,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Turboverdichter</c:v>
+            <c:v>BMVBS Turboverdichter</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -386,15 +387,13 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="5"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -468,7 +467,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1FB8-4FE8-B40A-D3466F829249}"/>
+              <c16:uniqueId val="{00000002-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -502,37 +501,7 @@
             <c:backward val="50"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -615,7 +584,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1FB8-4FE8-B40A-D3466F829249}"/>
+              <c16:uniqueId val="{00000004-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -623,7 +592,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Preisatlas</c:v>
+            <c:v>IUTA Preisatlas</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -633,16 +602,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -734,7 +701,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D5EC-4070-86A9-B96FB1D15725}"/>
+              <c16:uniqueId val="{00000005-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -755,6 +722,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>Regression</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -767,37 +735,7 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="50"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -964,7 +902,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D5EC-4070-86A9-B96FB1D15725}"/>
+              <c16:uniqueId val="{00000007-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1001,6 +939,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1023,7 +975,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Kälteleistung [kW]</a:t>
+                  <a:t>Nennkälteleistung [MW]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1054,13 +1006,13 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1088,6 +1040,9 @@
         <c:crossAx val="1963502896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
       </c:valAx>
       <c:valAx>
         <c:axId val="1963502896"/>
@@ -1110,6 +1065,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1132,7 +1101,23 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> Investitionskosten [k€]</a:t>
+                  <a:t> Investitionskosten [Tsd.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>€]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1164,12 +1149,12 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1200,7 +1185,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="15875">
+        <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1208,6 +1193,60 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14243885796615974"/>
+          <c:y val="8.7581229370830183E-2"/>
+          <c:w val="0.26423842874297826"/>
+          <c:h val="0.24252885056034662"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1239,11 +1278,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1803,31 +1837,35 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E34B2A21-CA44-410F-A995-67B4C349B58E}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>188819</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>233922</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>119342</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9305925" cy="6000750"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBB98B0-34C5-4845-ACBE-E002CD061E86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9924BC-ECF7-4051-ADB4-C1A733B0CAF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1840,7 +1878,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2109,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2208,7 @@
         <v>22.5</v>
       </c>
       <c r="E4">
-        <f>A4*(1+1/$F$1)</f>
+        <f t="shared" ref="E4:E14" si="0">A4*(1+1/$F$1)</f>
         <v>150</v>
       </c>
       <c r="F4">
@@ -2186,11 +2224,11 @@
         <v>35</v>
       </c>
       <c r="E5">
-        <f>A5*(1+1/$F$1)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F14" si="0">0.0154*E5+10.571</f>
+        <f t="shared" ref="F5:F14" si="1">0.0154*E5+10.571</f>
         <v>15.190999999999999</v>
       </c>
     </row>
@@ -2205,11 +2243,11 @@
         <v>55</v>
       </c>
       <c r="E6">
-        <f>A6*(1+1/$F$1)</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.811</v>
       </c>
     </row>
@@ -2227,11 +2265,11 @@
         <v>82.5</v>
       </c>
       <c r="E7">
-        <f>A7*(1+1/$F$1)</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.431000000000001</v>
       </c>
     </row>
@@ -2249,11 +2287,11 @@
         <v>100</v>
       </c>
       <c r="E8">
-        <f>A8*(1+1/$F$1)</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.051000000000002</v>
       </c>
     </row>
@@ -2271,11 +2309,11 @@
         <v>125</v>
       </c>
       <c r="E9">
-        <f>A9*(1+1/$F$1)</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.670999999999999</v>
       </c>
     </row>
@@ -2290,11 +2328,11 @@
         <v>135</v>
       </c>
       <c r="E10">
-        <f>A10*(1+1/$F$1)</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.291000000000004</v>
       </c>
     </row>
@@ -2309,11 +2347,11 @@
         <v>157.5</v>
       </c>
       <c r="E11">
-        <f>A11*(1+1/$F$1)</f>
+        <f t="shared" si="0"/>
         <v>2100</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.911000000000001</v>
       </c>
     </row>
@@ -2325,11 +2363,11 @@
         <v>160</v>
       </c>
       <c r="E12">
-        <f>A12*(1+1/$F$1)</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.530999999999999</v>
       </c>
     </row>
@@ -2341,11 +2379,11 @@
         <v>240</v>
       </c>
       <c r="E13">
-        <f>A13*(1+1/$F$1)</f>
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.01100000000001</v>
       </c>
     </row>
@@ -2357,11 +2395,11 @@
         <v>280</v>
       </c>
       <c r="E14">
-        <f>A14*(1+1/$F$1)</f>
+        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84.491</v>
       </c>
     </row>
@@ -2387,7 +2425,7 @@
         <v>250</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:B23" si="1">B5+F5</f>
+        <f t="shared" ref="B19:B22" si="2">B5+F5</f>
         <v>50.191000000000003</v>
       </c>
       <c r="D19" s="1"/>
@@ -2397,7 +2435,7 @@
         <v>500</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.811000000000007</v>
       </c>
       <c r="C20">
@@ -2411,11 +2449,11 @@
         <v>750</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.430999999999997</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C25" si="2">C7+F7</f>
+        <f t="shared" ref="C21:C25" si="3">C7+F7</f>
         <v>91.930999999999997</v>
       </c>
       <c r="D21" s="1">
@@ -2428,15 +2466,15 @@
         <v>1000</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119.051</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109.051</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D28" si="3">D8+F8</f>
+        <f t="shared" ref="D22:D28" si="4">D8+F8</f>
         <v>129.05099999999999</v>
       </c>
     </row>
@@ -2449,11 +2487,11 @@
         <v>146.17099999999999</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121.17099999999999</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>158.67099999999999</v>
       </c>
     </row>
@@ -2462,11 +2500,11 @@
         <v>1500</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128.291</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>173.291</v>
       </c>
     </row>
@@ -2475,11 +2513,11 @@
         <v>1750</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130.411</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200.411</v>
       </c>
     </row>
@@ -2488,7 +2526,7 @@
         <v>2000</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="3"/>
+        <f>D12+F12</f>
         <v>207.53100000000001</v>
       </c>
     </row>
@@ -2497,7 +2535,7 @@
         <v>3000</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>306.01100000000002</v>
       </c>
     </row>
@@ -2506,7 +2544,7 @@
         <v>4000</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>364.49099999999999</v>
       </c>
     </row>
@@ -2554,11 +2592,11 @@
         <v>50</v>
       </c>
       <c r="B35" s="6">
-        <f>(4732.2487*A35^(-0.7382)+109.3)*A35/1000</f>
+        <f t="shared" ref="B35:B45" si="5">(4732.2487*A35^(-0.7382)+109.3)*A35/1000</f>
         <v>18.643255024742594</v>
       </c>
       <c r="C35">
-        <f>A35*(1+1/$F$1)</f>
+        <f t="shared" ref="C35:C45" si="6">A35*(1+1/$F$1)</f>
         <v>60</v>
       </c>
       <c r="D35" s="6">
@@ -2566,7 +2604,7 @@
         <v>11.494999999999999</v>
       </c>
       <c r="E35">
-        <f>B35+D35</f>
+        <f t="shared" ref="E35:E45" si="7">B35+D35</f>
         <v>30.138255024742591</v>
       </c>
     </row>
@@ -2575,11 +2613,11 @@
         <v>100</v>
       </c>
       <c r="B36" s="2">
-        <f>(4732.2487*A36^(-0.7382)+109.3)*A36/1000</f>
+        <f t="shared" si="5"/>
         <v>26.730381044538735</v>
       </c>
       <c r="C36">
-        <f>A36*(1+1/$F$1)</f>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="D36" s="2">
@@ -2587,7 +2625,7 @@
         <v>12.419</v>
       </c>
       <c r="E36">
-        <f>B36+D36</f>
+        <f t="shared" si="7"/>
         <v>39.149381044538735</v>
       </c>
     </row>
@@ -2596,19 +2634,19 @@
         <v>200</v>
       </c>
       <c r="B37" s="2">
-        <f>(4732.2487*A37^(-0.7382)+109.3)*A37/1000</f>
+        <f t="shared" si="5"/>
         <v>40.804241152101667</v>
       </c>
       <c r="C37">
-        <f>A37*(1+1/$F$1)</f>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" ref="D37:D46" si="4">0.0154*C37+10.571</f>
+        <f t="shared" ref="D37:D45" si="8">0.0154*C37+10.571</f>
         <v>14.266999999999999</v>
       </c>
       <c r="E37">
-        <f>B37+D37</f>
+        <f t="shared" si="7"/>
         <v>55.071241152101663</v>
       </c>
     </row>
@@ -2617,19 +2655,19 @@
         <v>300</v>
       </c>
       <c r="B38" s="2">
-        <f>(4732.2487*A38^(-0.7382)+109.3)*A38/1000</f>
+        <f t="shared" si="5"/>
         <v>53.855797498656166</v>
       </c>
       <c r="C38">
-        <f>A38*(1+1/$F$1)</f>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16.115000000000002</v>
       </c>
       <c r="E38">
-        <f>B38+D38</f>
+        <f t="shared" si="7"/>
         <v>69.970797498656168</v>
       </c>
     </row>
@@ -2638,19 +2676,19 @@
         <v>400</v>
       </c>
       <c r="B39" s="2">
-        <f>(4732.2487*A39^(-0.7382)+109.3)*A39/1000</f>
+        <f t="shared" si="5"/>
         <v>66.433646703667776</v>
       </c>
       <c r="C39">
-        <f>A39*(1+1/$F$1)</f>
+        <f t="shared" si="6"/>
         <v>480</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.963000000000001</v>
       </c>
       <c r="E39">
-        <f>B39+D39</f>
+        <f t="shared" si="7"/>
         <v>84.396646703667784</v>
       </c>
     </row>
@@ -2659,19 +2697,19 @@
         <v>500</v>
       </c>
       <c r="B40" s="2">
-        <f>(4732.2487*A40^(-0.7382)+109.3)*A40/1000</f>
+        <f t="shared" si="5"/>
         <v>78.730079019124091</v>
       </c>
       <c r="C40">
-        <f>A40*(1+1/$F$1)</f>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>19.811</v>
       </c>
       <c r="E40">
-        <f>B40+D40</f>
+        <f t="shared" si="7"/>
         <v>98.541079019124084</v>
       </c>
     </row>
@@ -2680,19 +2718,19 @@
         <v>750</v>
       </c>
       <c r="B41" s="2">
-        <f>(4732.2487*A41^(-0.7382)+109.3)*A41/1000</f>
+        <f t="shared" si="5"/>
         <v>108.7517953488193</v>
       </c>
       <c r="C41">
-        <f>A41*(1+1/$F$1)</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>24.431000000000001</v>
       </c>
       <c r="E41">
-        <f>B41+D41</f>
+        <f t="shared" si="7"/>
         <v>133.1827953488193</v>
       </c>
     </row>
@@ -2701,11 +2739,11 @@
         <v>1000</v>
       </c>
       <c r="B42" s="2">
-        <f>(4732.2487*A42^(-0.7382)+109.3)*A42/1000</f>
+        <f t="shared" si="5"/>
         <v>138.17138117834344</v>
       </c>
       <c r="C42">
-        <f>A42*(1+1/$F$1)</f>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="D42" s="2">
@@ -2713,7 +2751,7 @@
         <v>29.051000000000002</v>
       </c>
       <c r="E42">
-        <f>B42+D42</f>
+        <f t="shared" si="7"/>
         <v>167.22238117834343</v>
       </c>
     </row>
@@ -2722,19 +2760,19 @@
         <v>1500</v>
       </c>
       <c r="B43" s="2">
-        <f>(4732.2487*A43^(-0.7382)+109.3)*A43/1000</f>
+        <f t="shared" si="5"/>
         <v>196.05467310494635</v>
       </c>
       <c r="C43">
-        <f>A43*(1+1/$F$1)</f>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>38.291000000000004</v>
       </c>
       <c r="E43">
-        <f>B43+D43</f>
+        <f t="shared" si="7"/>
         <v>234.34567310494634</v>
       </c>
     </row>
@@ -2743,19 +2781,19 @@
         <v>2000</v>
       </c>
       <c r="B44" s="2">
-        <f>(4732.2487*A44^(-0.7382)+109.3)*A44/1000</f>
+        <f t="shared" si="5"/>
         <v>253.21602640436541</v>
       </c>
       <c r="C44">
-        <f>A44*(1+1/$F$1)</f>
+        <f t="shared" si="6"/>
         <v>2400</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>47.530999999999999</v>
       </c>
       <c r="E44">
-        <f>B44+D44</f>
+        <f t="shared" si="7"/>
         <v>300.74702640436539</v>
       </c>
     </row>
@@ -2764,24 +2802,23 @@
         <v>3000</v>
       </c>
       <c r="B45" s="2">
-        <f>(4732.2487*A45^(-0.7382)+109.3)*A45/1000</f>
+        <f t="shared" si="5"/>
         <v>366.39265835393985</v>
       </c>
       <c r="C45">
-        <f>A45*(1+1/$F$1)</f>
+        <f t="shared" si="6"/>
         <v>3600</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>66.01100000000001</v>
       </c>
       <c r="E45">
-        <f>B45+D45</f>
+        <f t="shared" si="7"/>
         <v>432.40365835393987</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Linearisierungen/CC investment costs.xlsx
+++ b/Linearisierungen/CC investment costs.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="371" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{4CFB12A1-C293-4971-B948-FE583390A35B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
     <sheet name="Daten" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -79,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,25 +174,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -256,28 +243,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35.381</c:v>
+                  <c:v>31.7515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.191000000000003</c:v>
+                  <c:v>47.356499999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.811000000000007</c:v>
+                  <c:v>78.566499999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.430999999999997</c:v>
+                  <c:v>99.776499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>119.051</c:v>
+                  <c:v>120.98650000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>146.17099999999999</c:v>
+                  <c:v>149.69650000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
@@ -345,28 +331,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>74.811000000000007</c:v>
+                  <c:v>73.566499999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.930999999999997</c:v>
+                  <c:v>92.276499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.051</c:v>
+                  <c:v>110.98650000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121.17099999999999</c:v>
+                  <c:v>124.6965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.291</c:v>
+                  <c:v>133.40649999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130.411</c:v>
+                  <c:v>137.1165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
@@ -438,34 +423,33 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>106.931</c:v>
+                  <c:v>107.2765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129.05099999999999</c:v>
+                  <c:v>130.98650000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.67099999999999</c:v>
+                  <c:v>162.19650000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173.291</c:v>
+                  <c:v>178.40649999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200.411</c:v>
+                  <c:v>207.1165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>207.53100000000001</c:v>
+                  <c:v>215.82650000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>306.01100000000002</c:v>
+                  <c:v>320.66649999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>364.49099999999999</c:v>
+                  <c:v>385.50650000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
@@ -500,8 +484,6 @@
             <c:trendlineType val="linear"/>
             <c:backward val="50"/>
             <c:intercept val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -549,40 +531,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35.381</c:v>
+                  <c:v>31.7515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.191000000000003</c:v>
+                  <c:v>47.356499999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.811000000000007</c:v>
+                  <c:v>78.566499999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.811000000000007</c:v>
+                  <c:v>73.566499999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.138255024742591</c:v>
+                  <c:v>26.031755024742594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.149381044538735</c:v>
+                  <c:v>35.360881044538736</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.071241152101663</c:v>
+                  <c:v>51.918741152101667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.970797498656168</c:v>
+                  <c:v>67.45429749865616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.396646703667784</c:v>
+                  <c:v>82.516146703667772</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98.541079019124084</c:v>
+                  <c:v>97.296579019124096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
@@ -663,43 +644,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>30.138255024742591</c:v>
+                  <c:v>26.031755024742594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.149381044538735</c:v>
+                  <c:v>35.360881044538736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.071241152101663</c:v>
+                  <c:v>51.918741152101667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.970797498656168</c:v>
+                  <c:v>67.45429749865616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.396646703667784</c:v>
+                  <c:v>82.516146703667772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.541079019124084</c:v>
+                  <c:v>97.296579019124096</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133.1827953488193</c:v>
+                  <c:v>133.52829534881931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>167.22238117834343</c:v>
+                  <c:v>169.15788117834344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234.34567310494634</c:v>
+                  <c:v>239.46117310494634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300.74702640436539</c:v>
+                  <c:v>309.04252640436539</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>432.40365835393987</c:v>
+                  <c:v>447.05915835393984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
@@ -733,9 +713,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="50"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:intercept val="45"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -825,105 +803,96 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>79.811000000000007</c:v>
+                  <c:v>78.566499999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.811000000000007</c:v>
+                  <c:v>73.566499999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.430999999999997</c:v>
+                  <c:v>99.776499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.930999999999997</c:v>
+                  <c:v>92.276499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>106.931</c:v>
+                  <c:v>107.2765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.051</c:v>
+                  <c:v>120.98650000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109.051</c:v>
+                  <c:v>110.98650000000001</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00">
-                  <c:v>129.05099999999999</c:v>
+                  <c:v>130.98650000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>146.17099999999999</c:v>
+                  <c:v>149.69650000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>121.17099999999999</c:v>
+                  <c:v>124.6965</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00">
-                  <c:v>158.67099999999999</c:v>
+                  <c:v>162.19650000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>128.291</c:v>
+                  <c:v>133.40649999999999</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00">
-                  <c:v>173.291</c:v>
+                  <c:v>178.40649999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130.411</c:v>
+                  <c:v>137.1165</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00">
-                  <c:v>200.411</c:v>
+                  <c:v>207.1165</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>207.53100000000001</c:v>
+                  <c:v>215.82650000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98.541079019124084</c:v>
+                  <c:v>97.296579019124096</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133.1827953488193</c:v>
+                  <c:v>133.52829534881931</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>167.22238117834343</c:v>
+                  <c:v>169.15788117834344</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>234.34567310494634</c:v>
+                  <c:v>239.46117310494634</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>300.74702640436539</c:v>
+                  <c:v>309.04252640436539</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
-                  <c:v>306.01100000000002</c:v>
+                  <c:v>320.66649999999998</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00">
-                  <c:v>364.49099999999999</c:v>
+                  <c:v>385.50650000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>432.40365835393987</c:v>
+                  <c:v>447.05915835393984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1689205360"/>
-        <c:axId val="1963502896"/>
+        <c:dLbls/>
+        <c:axId val="52442240"/>
+        <c:axId val="52444544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1689205360"/>
+        <c:axId val="52442240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -980,7 +949,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -988,26 +957,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1034,10 +985,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1963502896"/>
+        <c:crossAx val="52444544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1045,11 +996,10 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1963502896"/>
+        <c:axId val="52444544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1122,7 +1072,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1130,26 +1080,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1176,10 +1108,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1689205360"/>
+        <c:crossAx val="52442240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1212,9 +1144,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.14243885796615974"/>
-          <c:y val="8.7581229370830183E-2"/>
+          <c:y val="8.758122937083021E-2"/>
           <c:w val="0.26423842874297826"/>
-          <c:h val="0.24252885056034662"/>
+          <c:h val="0.24252885056034668"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1243,20 +1175,19 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1275,7 +1206,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1838,13 +1769,13 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E34B2A21-CA44-410F-A995-67B4C349B58E}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -1859,7 +1790,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9924BC-ECF7-4051-ADB4-C1A733B0CAF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B9924BC-ECF7-4051-ADB4-C1A733B0CAF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,7 +1856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1960,7 +1891,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2137,21 +2068,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -2161,7 +2092,7 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="E1" t="s">
         <v>7</v>
       </c>
@@ -2169,7 +2100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2177,7 +2108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2200,7 +2131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>125</v>
       </c>
@@ -2212,11 +2143,11 @@
         <v>150</v>
       </c>
       <c r="F4">
-        <f>0.0154*E4+10.571</f>
-        <v>12.881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>0.0207*E4+6.1465</f>
+        <v>9.2515000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>250</v>
       </c>
@@ -2228,11 +2159,11 @@
         <v>300</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F14" si="1">0.0154*E5+10.571</f>
-        <v>15.190999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F5:F14" si="1">0.0207*E5+6.1465</f>
+        <v>12.3565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>500</v>
       </c>
@@ -2248,10 +2179,10 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>19.811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18.566499999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>750</v>
       </c>
@@ -2270,10 +2201,10 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>24.431000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24.776499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -2292,10 +2223,10 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>29.051000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30.986499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1250</v>
       </c>
@@ -2314,10 +2245,10 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>33.670999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37.1965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1500</v>
       </c>
@@ -2333,10 +2264,10 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>38.291000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43.406499999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1750</v>
       </c>
@@ -2352,10 +2283,10 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>42.911000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49.616500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -2368,10 +2299,10 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>47.530999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55.826499999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>3000</v>
       </c>
@@ -2384,10 +2315,10 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>66.01100000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80.666499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>4000</v>
       </c>
@@ -2400,10 +2331,10 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>84.491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105.5065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2411,153 +2342,153 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>125</v>
       </c>
       <c r="B18">
         <f>B4+F4</f>
-        <v>35.381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31.7515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>250</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19:B22" si="2">B5+F5</f>
-        <v>50.191000000000003</v>
+        <v>47.356499999999997</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>500</v>
       </c>
       <c r="B20">
         <f t="shared" si="2"/>
-        <v>79.811000000000007</v>
+        <v>78.566499999999991</v>
       </c>
       <c r="C20">
         <f>C6+F6</f>
-        <v>74.811000000000007</v>
+        <v>73.566499999999991</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>750</v>
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
-        <v>99.430999999999997</v>
+        <v>99.776499999999999</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:C25" si="3">C7+F7</f>
-        <v>91.930999999999997</v>
+        <v>92.276499999999999</v>
       </c>
       <c r="D21" s="1">
         <f>D7+F7</f>
-        <v>106.931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107.2765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>1000</v>
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
-        <v>119.051</v>
+        <v>120.98650000000001</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>109.051</v>
+        <v>110.98650000000001</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ref="D22:D28" si="4">D8+F8</f>
-        <v>129.05099999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130.98650000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>1250</v>
       </c>
       <c r="B23">
         <f>B9+F9</f>
-        <v>146.17099999999999</v>
+        <v>149.69650000000001</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
-        <v>121.17099999999999</v>
+        <v>124.6965</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="4"/>
-        <v>158.67099999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162.19650000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>1500</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>128.291</v>
+        <v>133.40649999999999</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="4"/>
-        <v>173.291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178.40649999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>1750</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>130.411</v>
+        <v>137.1165</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="4"/>
-        <v>200.411</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207.1165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>2000</v>
       </c>
       <c r="D26" s="1">
         <f>D12+F12</f>
-        <v>207.53100000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215.82650000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>3000</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="4"/>
-        <v>306.01100000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>320.66649999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>4000</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="4"/>
-        <v>364.49099999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>385.50650000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="B31" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -2570,7 +2501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -2587,7 +2518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>50</v>
       </c>
@@ -2599,16 +2530,16 @@
         <f t="shared" ref="C35:C45" si="6">A35*(1+1/$F$1)</f>
         <v>60</v>
       </c>
-      <c r="D35" s="6">
-        <f>0.0154*C35+10.571</f>
-        <v>11.494999999999999</v>
+      <c r="D35">
+        <f>0.0207*C35+6.1465</f>
+        <v>7.3884999999999996</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:E45" si="7">B35+D35</f>
-        <v>30.138255024742591</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.031755024742594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>100</v>
       </c>
@@ -2620,16 +2551,16 @@
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="D36" s="2">
-        <f>0.0154*C36+10.571</f>
-        <v>12.419</v>
+      <c r="D36">
+        <f t="shared" ref="D36:D45" si="8">0.0207*C36+6.1465</f>
+        <v>8.6304999999999996</v>
       </c>
       <c r="E36">
         <f t="shared" si="7"/>
-        <v>39.149381044538735</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35.360881044538736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>200</v>
       </c>
@@ -2641,16 +2572,16 @@
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="D37" s="2">
-        <f t="shared" ref="D37:D45" si="8">0.0154*C37+10.571</f>
-        <v>14.266999999999999</v>
+      <c r="D37">
+        <f t="shared" si="8"/>
+        <v>11.1145</v>
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
-        <v>55.071241152101663</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51.918741152101667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>300</v>
       </c>
@@ -2662,16 +2593,16 @@
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <f t="shared" si="8"/>
-        <v>16.115000000000002</v>
+        <v>13.5985</v>
       </c>
       <c r="E38">
         <f t="shared" si="7"/>
-        <v>69.970797498656168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67.45429749865616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>400</v>
       </c>
@@ -2683,16 +2614,16 @@
         <f t="shared" si="6"/>
         <v>480</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <f t="shared" si="8"/>
-        <v>17.963000000000001</v>
+        <v>16.0825</v>
       </c>
       <c r="E39">
         <f t="shared" si="7"/>
-        <v>84.396646703667784</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82.516146703667772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>500</v>
       </c>
@@ -2704,16 +2635,16 @@
         <f t="shared" si="6"/>
         <v>600</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <f t="shared" si="8"/>
-        <v>19.811</v>
+        <v>18.566499999999998</v>
       </c>
       <c r="E40">
         <f t="shared" si="7"/>
-        <v>98.541079019124084</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97.296579019124096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>750</v>
       </c>
@@ -2725,16 +2656,16 @@
         <f t="shared" si="6"/>
         <v>900</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <f t="shared" si="8"/>
-        <v>24.431000000000001</v>
+        <v>24.776499999999999</v>
       </c>
       <c r="E41">
         <f t="shared" si="7"/>
-        <v>133.1827953488193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133.52829534881931</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>1000</v>
       </c>
@@ -2746,16 +2677,16 @@
         <f t="shared" si="6"/>
         <v>1200</v>
       </c>
-      <c r="D42" s="2">
-        <f>0.0154*C42+10.571</f>
-        <v>29.051000000000002</v>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>30.986499999999999</v>
       </c>
       <c r="E42">
         <f t="shared" si="7"/>
-        <v>167.22238117834343</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>169.15788117834344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>1500</v>
       </c>
@@ -2767,16 +2698,16 @@
         <f t="shared" si="6"/>
         <v>1800</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <f t="shared" si="8"/>
-        <v>38.291000000000004</v>
+        <v>43.406499999999994</v>
       </c>
       <c r="E43">
         <f t="shared" si="7"/>
-        <v>234.34567310494634</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>239.46117310494634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>2000</v>
       </c>
@@ -2788,16 +2719,16 @@
         <f t="shared" si="6"/>
         <v>2400</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <f t="shared" si="8"/>
-        <v>47.530999999999999</v>
+        <v>55.826499999999996</v>
       </c>
       <c r="E44">
         <f t="shared" si="7"/>
-        <v>300.74702640436539</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309.04252640436539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>3000</v>
       </c>
@@ -2809,13 +2740,13 @@
         <f t="shared" si="6"/>
         <v>3600</v>
       </c>
-      <c r="D45" s="2">
-        <f t="shared" si="8"/>
-        <v>66.01100000000001</v>
+      <c r="D45">
+        <f>0.0207*C45+6.1465</f>
+        <v>80.666499999999999</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
-        <v>432.40365835393987</v>
+        <v>447.05915835393984</v>
       </c>
     </row>
   </sheetData>
